--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -419,18 +419,18 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999991094848247</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -342,209 +342,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -555,209 +435,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -768,209 +528,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
         <v>1</v>
       </c>
     </row>

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -377,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -475,7 +475,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -579,12 +579,12 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -377,12 +377,12 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -393,12 +393,12 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -552,15 +552,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -369,7 +369,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -382,10 +382,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -406,7 +406,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -547,12 +547,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -595,15 +595,15 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -366,7 +366,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -579,12 +579,12 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -358,7 +358,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -369,7 +369,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -592,7 +592,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -358,7 +358,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -369,7 +369,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -382,10 +382,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/assets/generated/model3/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model3/CustomerVehicleTripMap.xlsx
@@ -366,7 +366,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
